--- a/scraped_data_output.xlsx
+++ b/scraped_data_output.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Indian Cuisine Recipes" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,14 +413,62 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Recipe Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Servings</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Calories</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Fat</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Carbohydrates</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Protein</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Sodium</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sugar</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Fiber</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>